--- a/biology/Zoologie/Bondrée_à_queue_carrée/Bondrée_à_queue_carrée.xlsx
+++ b/biology/Zoologie/Bondrée_à_queue_carrée/Bondrée_à_queue_carrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_%C3%A0_queue_carr%C3%A9e</t>
+          <t>Bondrée_à_queue_carrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophoictinia isura
 La Bondrée à queue carrée (Lophoictinia isura), anciennement connue en tant que Milan à queue carrée, est une espèce d'oiseaux de proie de la famille des Accipitridae vivant en Australie. C'est une espèce monotypique, la seule du genre Lophoictinia.
-Sa ressemblance avec les milans est superficielle et due à une convergence évolutive. Elle appartient au même groupe australien que les Henicopernis et Hamirostra[1] .
+Sa ressemblance avec les milans est superficielle et due à une convergence évolutive. Elle appartient au même groupe australien que les Henicopernis et Hamirostra .
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_%C3%A0_queue_carr%C3%A9e</t>
+          <t>Bondrée_à_queue_carrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit en Australie. Elle est connue pour nicher dans l'Est et le Sud-Est, mais hors de la saison de nidification, elle est rencontrée également sans le Nord et l'Ouest[1]. 
-On la rencontre dans les forêts et les brousses jusqu'à 1000 m d'altitude[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en Australie. Elle est connue pour nicher dans l'Est et le Sud-Est, mais hors de la saison de nidification, elle est rencontrée également sans le Nord et l'Ouest. 
+On la rencontre dans les forêts et les brousses jusqu'à 1000 m d'altitude. 
 </t>
         </is>
       </c>
